--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E46B9D-FF8E-4108-93EF-FD00BF8BB17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BEEB1E-2971-475B-A666-C96819FD3717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -292,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,9 +309,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2930,8 +2927,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2941,13 +2938,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>45566</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -2991,7 +2988,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
-        <f t="shared" ref="A6:A27" si="1">A5+1</f>
+        <f t="shared" ref="A6:A34" si="1">A5+1</f>
         <v>45568</v>
       </c>
       <c r="B6" s="1" t="str">
@@ -3121,7 +3118,7 @@
         <f t="shared" si="1"/>
         <v>45579</v>
       </c>
-      <c r="B17" s="11" t="str">
+      <c r="B17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
@@ -3208,7 +3205,7 @@
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3252,19 +3249,21 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
+        <f t="shared" si="1"/>
         <v>45590</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
+        <f t="shared" si="1"/>
         <v>45591</v>
       </c>
       <c r="B29" s="1" t="str">
@@ -3276,7 +3275,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
+        <f t="shared" si="1"/>
         <v>45592</v>
       </c>
       <c r="B30" s="1" t="str">
@@ -3288,10 +3288,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
+        <f t="shared" si="1"/>
         <v>45593</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="B31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
@@ -3300,40 +3301,43 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
+        <f t="shared" si="1"/>
         <v>45594</v>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
+        <f t="shared" si="1"/>
         <v>45595</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
+        <f t="shared" si="1"/>
         <v>45596</v>
       </c>
-      <c r="B34" s="10" t="str">
+      <c r="B34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+      <selection activeCell="G13" sqref="G13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
       <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
-      <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BEEB1E-2971-475B-A666-C96819FD3717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA60123D-696F-4C6A-B115-BA71976344C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -159,10 +159,6 @@
   </si>
   <si>
     <t>チーム制作授業日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チーム制作授業日</t>
     <rPh sb="3" eb="5">
       <t>セイサク</t>
     </rPh>
@@ -178,6 +174,13 @@
     <t>授業日</t>
     <rPh sb="0" eb="3">
       <t>ジュギョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム制作授業日・制作開始</t>
+    <rPh sb="9" eb="11">
+      <t>セイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2927,8 +2930,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3007,7 +3010,7 @@
         <v>金</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -3053,7 +3056,7 @@
         <v>火</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -3088,7 +3091,7 @@
         <v>金</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -3123,7 +3126,7 @@
         <v>月</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -3136,7 +3139,7 @@
         <v>火</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -3171,7 +3174,7 @@
         <v>金</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -3332,12 +3335,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
       <selection activeCell="G13" sqref="G13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
-      <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA60123D-696F-4C6A-B115-BA71976344C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710D8C52-B6B4-4848-8839-7F3E5FDAA640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -509,11 +509,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3335,12 +3335,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+      <selection activeCell="G13" sqref="G13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
       <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
-      <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710D8C52-B6B4-4848-8839-7F3E5FDAA640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FCFF68-FE50-4B62-9BF1-684CFF571247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -517,7 +517,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2931,7 +2931,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3335,12 +3335,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
       <selection activeCell="G13" sqref="G13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
-      <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\randomparty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\project\randomparty\randomparty\project\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FCFF68-FE50-4B62-9BF1-684CFF571247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63C5127-2F1B-4DE5-BBE1-6937763A150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
+    <workbookView xWindow="14190" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2930,7 +2930,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3335,12 +3335,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+      <selection activeCell="G13" sqref="G13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
       <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
-      <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\project\randomparty\randomparty\project\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63C5127-2F1B-4DE5-BBE1-6937763A150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F627441-D4BE-4ED5-ADF3-9CC2E2214DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>先生に聞いて決まったゲームに修正を加えて、プロトタイプ作成</t>
     <rPh sb="0" eb="2">
@@ -181,6 +181,74 @@
     <t>チーム制作授業日・制作開始</t>
     <rPh sb="9" eb="11">
       <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曽和・・１７時からバイト(１５時くらいまでならできる)</t>
+    <rPh sb="0" eb="2">
+      <t>ソワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曽和・・昼に家族でご飯行く(夕方はできる)</t>
+    <rPh sb="0" eb="2">
+      <t>ソワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ユウガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸毛・・１日無理っぽい？(毎週土曜１５時～１７時くらいはいない)</t>
+    <rPh sb="0" eb="2">
+      <t>マルケ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>マイシュウドヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曽和・・オープンキャンパススタッフ</t>
+    <rPh sb="0" eb="2">
+      <t>ソワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曽和・・バイト</t>
+    <rPh sb="0" eb="2">
+      <t>ソワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -295,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,6 +401,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2928,19 +2999,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E2D406-EB54-4C27-A6CF-5F142FBA59DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:G34"/>
+  <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>45566</v>
       </c>
@@ -2949,7 +3022,7 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2960,7 +3033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <f>A2</f>
         <v>45566</v>
@@ -2976,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <f>A4+1</f>
         <v>45567</v>
@@ -2989,7 +3062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A34" si="1">A5+1</f>
         <v>45568</v>
@@ -3000,7 +3073,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>45569</v>
@@ -3013,7 +3086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>45570</v>
@@ -3024,7 +3097,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>45571</v>
@@ -3035,7 +3108,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>45572</v>
@@ -3046,7 +3119,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>45573</v>
@@ -3058,8 +3131,16 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E11" s="13">
+        <f>A15</f>
+        <v>45577</v>
+      </c>
+      <c r="L11" s="13">
+        <f>A16</f>
+        <v>45578</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>45574</v>
@@ -3069,8 +3150,14 @@
         <v>水</v>
       </c>
       <c r="C12" s="1"/>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>45575</v>
@@ -3080,8 +3167,11 @@
         <v>木</v>
       </c>
       <c r="C13" s="1"/>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>45576</v>
@@ -3094,7 +3184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>45577</v>
@@ -3105,7 +3195,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>45578</v>
@@ -3116,7 +3206,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>45579</v>
@@ -3129,7 +3219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>45580</v>
@@ -3141,8 +3231,16 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E18" s="13">
+        <f>A22</f>
+        <v>45584</v>
+      </c>
+      <c r="L18" s="13">
+        <f>A23</f>
+        <v>45585</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>45581</v>
@@ -3152,8 +3250,14 @@
         <v>水</v>
       </c>
       <c r="C19" s="1"/>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>45582</v>
@@ -3164,7 +3268,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>45583</v>
@@ -3177,7 +3281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <f t="shared" si="1"/>
         <v>45584</v>
@@ -3188,7 +3292,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>45585</v>
@@ -3199,7 +3303,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>45586</v>
@@ -3212,7 +3316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <f t="shared" si="1"/>
         <v>45587</v>
@@ -3225,7 +3329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>45588</v>
@@ -3238,7 +3342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>45589</v>
@@ -3251,7 +3355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <f t="shared" si="1"/>
         <v>45590</v>
@@ -3264,7 +3368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>45591</v>
@@ -3277,7 +3381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>45592</v>
@@ -3290,7 +3394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <f t="shared" si="1"/>
         <v>45593</v>
@@ -3303,7 +3407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <f t="shared" si="1"/>
         <v>45594</v>
@@ -3335,12 +3439,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
       <selection activeCell="G13" sqref="G13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
-      <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\project\randomparty\randomparty\project\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F627441-D4BE-4ED5-ADF3-9CC2E2214DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6F7307-8C3F-4048-880B-CAB49FC8B654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,29 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>先生に聞いて決まったゲームに修正を加えて、プロトタイプ作成</t>
-    <rPh sb="0" eb="2">
-      <t>センセイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>チーム制作スケジュール表</t>
     <rPh sb="3" eb="5">
@@ -596,7 +574,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3002,7 +2980,7 @@
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3018,19 +2996,19 @@
         <v>45566</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -3043,10 +3021,7 @@
         <v>火</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -3059,7 +3034,7 @@
         <v>水</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -3083,7 +3058,7 @@
         <v>金</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -3129,7 +3104,7 @@
         <v>火</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="13">
         <f>A15</f>
@@ -3151,10 +3126,10 @@
       </c>
       <c r="C12" s="1"/>
       <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
         <v>15</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -3168,7 +3143,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -3181,7 +3156,7 @@
         <v>金</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -3216,7 +3191,7 @@
         <v>月</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
@@ -3229,7 +3204,7 @@
         <v>火</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="13">
         <f>A22</f>
@@ -3251,10 +3226,10 @@
       </c>
       <c r="C19" s="1"/>
       <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
         <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -3278,7 +3253,7 @@
         <v>金</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -3313,7 +3288,7 @@
         <v>月</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
@@ -3326,7 +3301,7 @@
         <v>火</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
@@ -3339,7 +3314,7 @@
         <v>水</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
@@ -3352,7 +3327,7 @@
         <v>木</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
@@ -3365,7 +3340,7 @@
         <v>金</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
@@ -3378,7 +3353,7 @@
         <v>土</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -3391,7 +3366,7 @@
         <v>日</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
@@ -3404,7 +3379,7 @@
         <v>月</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
@@ -3439,12 +3414,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+      <selection activeCell="G13" sqref="G13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
       <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
-      <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\project\randomparty\randomparty\project\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6F7307-8C3F-4048-880B-CAB49FC8B654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C87410-39B6-4C38-8641-FE076A5C8831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -458,7 +458,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3414,12 +3414,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
       <selection activeCell="G13" sqref="G13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
-      <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\project\randomparty\randomparty\project\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C87410-39B6-4C38-8641-FE076A5C8831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761BA17B-0469-4107-B868-EDA1D122590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -176,25 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>曽和・・昼に家族でご飯行く(夕方はできる)</t>
-    <rPh sb="0" eb="2">
-      <t>ソワ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カゾク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ユウガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>丸毛・・１日無理っぽい？(毎週土曜１５時～１７時くらいはいない)</t>
     <rPh sb="0" eb="2">
       <t>マルケ</t>
@@ -227,6 +208,28 @@
     <t>曽和・・バイト</t>
     <rPh sb="0" eb="2">
       <t>ソワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曽和・・家族で京都行く(母の誕生日祝い)</t>
+    <rPh sb="0" eb="2">
+      <t>ソワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハハ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>タンジョウビイワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -462,7 +465,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2980,7 +2983,7 @@
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3129,7 +3132,7 @@
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -3143,7 +3146,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -3226,10 +3229,10 @@
       </c>
       <c r="C19" s="1"/>
       <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
         <v>17</v>
-      </c>
-      <c r="L19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -3414,12 +3417,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+      <selection activeCell="G13" sqref="G13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
       <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
-      <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\project\randomparty\randomparty\project\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761BA17B-0469-4107-B868-EDA1D122590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9C6028-D755-46E8-839F-4B6BA95F1FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>チーム制作スケジュール表</t>
     <rPh sb="3" eb="5">
@@ -163,41 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>曽和・・１７時からバイト(１５時くらいまでならできる)</t>
-    <rPh sb="0" eb="2">
-      <t>ソワ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>丸毛・・１日無理っぽい？(毎週土曜１５時～１７時くらいはいない)</t>
-    <rPh sb="0" eb="2">
-      <t>マルケ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ムリ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>マイシュウドヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>曽和・・オープンキャンパススタッフ</t>
     <rPh sb="0" eb="2">
       <t>ソワ</t>
@@ -208,28 +173,6 @@
     <t>曽和・・バイト</t>
     <rPh sb="0" eb="2">
       <t>ソワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>曽和・・家族で京都行く(母の誕生日祝い)</t>
-    <rPh sb="0" eb="2">
-      <t>ソワ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カゾク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キョウト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ハハ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>タンジョウビイワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -469,11 +412,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2982,8 +2925,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3109,14 +3052,8 @@
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13">
-        <f>A15</f>
-        <v>45577</v>
-      </c>
-      <c r="L11" s="13">
-        <f>A16</f>
-        <v>45578</v>
-      </c>
+      <c r="E11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
@@ -3128,12 +3065,6 @@
         <v>水</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
@@ -3145,9 +3076,6 @@
         <v>木</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="L13" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
@@ -3229,10 +3157,10 @@
       </c>
       <c r="C19" s="1"/>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -3417,12 +3345,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
       <selection activeCell="G13" sqref="G13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
-      <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\project\randomparty\randomparty\project\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9C6028-D755-46E8-839F-4B6BA95F1FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F271E264-D6C6-4AA7-A52F-5A99D521FBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2925,7 +2925,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -3345,12 +3345,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+      <selection activeCell="G13" sqref="G13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
       <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
-      <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\project\randomparty\randomparty\project\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F271E264-D6C6-4AA7-A52F-5A99D521FBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D80B1-3F46-4906-8049-593A0482372A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -170,9 +170,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>曽和・・バイト</t>
+    <t>曽和・・バイト(17時～２３時３０分)</t>
     <rPh sb="0" eb="2">
       <t>ソワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>プン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -424,15 +433,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2925,8 +2934,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3345,12 +3354,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
       <selection activeCell="G13" sqref="G13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
-      <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\project\randomparty\randomparty\project\randomparty\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D80B1-3F46-4906-8049-593A0482372A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C556886F-3673-4BA9-91EC-5F417666441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -445,11 +445,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,11 +457,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3354,12 +3354,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+      <selection activeCell="G13" sqref="G13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
       <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
-      <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
